--- a/LME/parser_beta_2.0/data/shmet_historical.xlsx
+++ b/LME/parser_beta_2.0/data/shmet_historical.xlsx
@@ -420,7 +420,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>45681</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>45680</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>45679</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>45678</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45675</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>45674</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>45673</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>45672</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>45671</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>45669</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>45668</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>45667</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>45666</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>45665</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>45664</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>45663</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>45662</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>45661</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>45660</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>45659</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>45658</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>45657</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>45656</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>45654</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>45653</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>45652</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>45652</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>45651</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>45651</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>45650</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>45647</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>45646</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>45645</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>45645</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>45644</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>45643</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>45642</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>45640</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>45639</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>45639</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>45638</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>45637</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>45636</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>45635</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>45633</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>45632</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>45631</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>45630</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>45629</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>45628</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>45626</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>45625</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>45624</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>45623</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>45622</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>45621</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>45619</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>45618</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>45617</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>45616</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>45615</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>45614</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>45612</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>45611</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>45610</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>45609</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>45608</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>45607</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>45605</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>45604</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>45603</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>45603</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>45602</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>45601</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>45600</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>45598</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>45597</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>45596</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>45595</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>45594</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>45591</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>45590</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>45589</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>45588</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>45587</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>45586</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>45584</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>45583</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>45582</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>45581</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>45580</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>45579</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>45577</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>45576</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>45575</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>45574</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>45573</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>45572</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>45570</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>45569</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>45568</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>45567</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>45566</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>45563</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>45562</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>45561</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>45560</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>45559</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>45556</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>45555</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>45554</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>45553</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>45552</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>45551</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>45549</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>45548</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>45547</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>45546</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>45545</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>45543</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>45542</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>45541</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>45540</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>45539</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>45538</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>45535</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>45534</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>45533</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>45532</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>45531</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>45531</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>45530</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>45528</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>45527</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>45526</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>45525</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>45524</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>45521</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>45520</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>45519</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>45518</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>45517</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>45514</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>45513</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>45512</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>45511</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>45510</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>45509</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>45507</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>45506</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>45505</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>45504</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>45503</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>45500</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>45499</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>45498</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>45497</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>45496</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>45495</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>45493</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>45492</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>45491</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>45490</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>45489</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>45486</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>45485</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>45484</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>45483</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>45483</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>45482</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>45480</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>45478</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>45477</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>45476</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>45475</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>45474</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>45473</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>45472</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>45471</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>45470</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>45469</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>45468</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>45465</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>45464</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>45463</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>45462</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>45461</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>45458</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>45457</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>45456</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>45455</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>45454</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>45451</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>45450</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>45449</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>45448</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>45447</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>45444</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>45443</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>45442</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>45441</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>45440</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>45436</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>45435</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>45434</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>45433</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>45432</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>45430</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>45429</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>45428</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>45427</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>45426</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>45425</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>45423</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>45422</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>45421</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>45420</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>45419</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>45418</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>45416</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>45415</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>45414</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>45413</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>45412</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>45409</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>45408</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>45407</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>45406</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>45405</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>45402</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>45401</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>45401</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>45400</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>45399</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>45398</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>45398</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>45395</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>45394</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>45393</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>45393</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>45392</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>45391</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>45391</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>45388</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>45387</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>45386</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>45385</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>45384</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>45381</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>45380</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>45379</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>45378</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>45377</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>45374</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>45373</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>45372</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>45371</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>45370</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>45369</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>45367</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>45366</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>45365</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>45364</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>45363</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>45362</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>45360</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>45359</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>45358</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>45357</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>45356</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>45353</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>45352</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>45351</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>45350</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>45349</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>45348</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>45347</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>45346</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>45345</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>45344</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>45343</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>45342</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>45339</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>45338</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>45337</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>45336</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>45335</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>45332</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>45331</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>45330</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>45329</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>45328</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>45325</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>45324</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>45323</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>45322</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>45321</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>45318</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>45317</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>45316</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>45315</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>45315</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>45314</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>45311</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>45310</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>45309</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>45308</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>45307</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>45306</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>45304</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>45303</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>45302</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>45301</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>45301</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>45300</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>45299</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>45298</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>45297</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>45296</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>45295</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>45294</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>45293</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>45291</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>45290</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>45289</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>45288</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>45287</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>45286</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>45285</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>45283</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>45282</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>45281</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>45280</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>45279</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>45276</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>45275</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>45275</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>45274</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>45273</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>45272</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>45269</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>45268</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>45267</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>45266</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>45265</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>45262</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>45261</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>45260</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>45259</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>45258</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>45255</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>45254</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>45253</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>45252</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>45251</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>45248</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>45247</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>45246</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>45245</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>45244</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>45241</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>45240</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>45239</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>45238</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>45238</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>45237</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>45234</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>45233</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>45232</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>45232</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>45231</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>45231</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>45230</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>45230</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>45229</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>45227</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>45226</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>45225</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>45224</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>45223</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>45220</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>45219</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>45218</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>45217</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>45216</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>45216</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>45214</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>45211</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>45210</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>45209</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>45206</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>45205</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>45204</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>45203</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>45202</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>45199</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>45198</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>45197</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>45196</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>45195</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>45192</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>45191</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>45190</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>45189</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>45188</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>45187</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>45185</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>45184</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>45183</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>45182</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>45181</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>45180</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>45179</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>45178</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>45177</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>45176</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>45175</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>45174</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>45174</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>45173</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>45170</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>45169</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>45168</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>45167</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>45166</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>45163</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>45162</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>45160</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>45159</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>45156</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>45155</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>45154</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>45153</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>45152</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>45149</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>45148</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>45147</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>45146</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>45145</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>45142</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>45141</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>45140</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>45139</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>45138</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>45135</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>45134</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>45133</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>45132</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>45128</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>45127</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>45126</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>45125</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>45121</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>45120</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>45119</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>45118</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>45114</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>45113</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>45112</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>45111</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>45107</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>45106</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>45105</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>45104</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>45098</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>45097</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>45093</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>45092</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>45091</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>45086</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>45085</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>45084</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>45083</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>45079</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>45078</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>45077</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>45076</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>45072</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>45071</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>45070</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>45069</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>45065</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>45064</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>45063</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>45062</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>45058</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>45057</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>45051</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>45050</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>45044</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>45043</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>45042</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>45041</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>45037</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>45036</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>45035</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>45034</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>45030</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>45029</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" s="2">
         <v>45028</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" s="2">
         <v>45027</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" s="2">
         <v>45023</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="2">
         <v>45022</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="2">
         <v>45020</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="2">
         <v>45016</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="2">
         <v>45015</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="2">
         <v>45014</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="2">
         <v>45013</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="2">
         <v>45009</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="2">
         <v>45008</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="2">
         <v>45007</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="2">
         <v>45006</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="2">
         <v>45002</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="2">
         <v>45001</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="2">
         <v>45000</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="2">
         <v>44999</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="2">
         <v>44995</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="2">
         <v>44993</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="2">
         <v>44992</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="2">
         <v>44988</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="2">
         <v>44987</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="2">
         <v>44986</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="2">
         <v>44985</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="2">
         <v>44980</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="2">
         <v>44979</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="2">
         <v>44978</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="2">
         <v>44974</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="2">
         <v>44973</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="2">
         <v>44972</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="2">
         <v>44971</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="2">
         <v>44967</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="2">
         <v>44966</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="2">
         <v>44965</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="2">
         <v>44964</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="2">
         <v>44960</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="2">
         <v>44959</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="2">
         <v>44958</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="2">
         <v>44957</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="2">
         <v>44946</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="2">
         <v>44945</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="2">
         <v>44944</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="2">
         <v>44943</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="2">
         <v>44939</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="2">
         <v>44938</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="2">
         <v>44937</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="2">
         <v>44936</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="2">
         <v>44925</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="2">
         <v>44924</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="2">
         <v>44923</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="2">
         <v>44922</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="2">
         <v>44918</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="2">
         <v>44917</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="2">
         <v>44916</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="2">
         <v>44915</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="2">
         <v>44911</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="2">
         <v>44910</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="2">
         <v>44909</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="2">
         <v>44908</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="2">
         <v>44904</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="2">
         <v>44903</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" s="2">
         <v>44902</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="2">
         <v>44901</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="2">
         <v>44897</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="2">
         <v>44896</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="2">
         <v>44895</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="2">
         <v>44894</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="2">
         <v>44890</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="2">
         <v>44889</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="2">
         <v>44888</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="2">
         <v>44887</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="2">
         <v>44883</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="2">
         <v>44882</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="2">
         <v>44881</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="2">
         <v>44880</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="2">
         <v>44876</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="2">
         <v>44875</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="2">
         <v>44874</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" s="2">
         <v>44873</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" s="2">
         <v>44869</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" s="2">
         <v>44868</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" s="2">
         <v>44867</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" s="2">
         <v>44866</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" s="2">
         <v>44862</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" s="2">
         <v>44861</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" s="2">
         <v>44860</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" s="2">
         <v>44859</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" s="2">
         <v>44855</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" s="2">
         <v>44854</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" s="2">
         <v>44853</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" s="2">
         <v>44852</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" s="2">
         <v>44848</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" s="2">
         <v>44847</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" s="2">
         <v>44846</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" s="2">
         <v>44845</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" s="2">
         <v>44834</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" s="2">
         <v>44833</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" s="2">
         <v>44832</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" s="2">
         <v>44831</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" s="2">
         <v>44827</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" s="2">
         <v>44826</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" s="2">
         <v>44825</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" s="2">
         <v>44824</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" s="2">
         <v>44820</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" s="2">
         <v>44819</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" s="2">
         <v>44818</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" s="2">
         <v>44817</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" s="2">
         <v>44813</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" s="2">
         <v>44812</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" s="2">
         <v>44811</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" s="2">
         <v>44810</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" s="2">
         <v>44806</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" s="2">
         <v>44805</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" s="2">
         <v>44804</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" s="2">
         <v>44803</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" s="2">
         <v>44799</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" s="2">
         <v>44798</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" s="2">
         <v>44797</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" s="2">
         <v>44796</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" s="2">
         <v>44792</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" s="2">
         <v>44791</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" s="2">
         <v>44790</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" s="2">
         <v>44789</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" s="2">
         <v>44785</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" s="2">
         <v>44784</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" s="2">
         <v>44783</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" s="2">
         <v>44782</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" s="2">
         <v>44778</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" s="2">
         <v>44777</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" s="2">
         <v>44776</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" s="2">
         <v>44775</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" s="2">
         <v>44771</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" s="2">
         <v>44770</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" s="2">
         <v>44769</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" s="2">
         <v>44768</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" s="2">
         <v>44764</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" s="2">
         <v>44763</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" s="2">
         <v>44762</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" s="2">
         <v>44761</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" s="2">
         <v>44757</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" s="2">
         <v>44756</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" s="2">
         <v>44755</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" s="2">
         <v>44754</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" s="2">
         <v>44750</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" s="2">
         <v>44749</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" s="2">
         <v>44748</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" s="2">
         <v>44747</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" s="2">
         <v>44743</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" s="2">
         <v>44742</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" s="2">
         <v>44741</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" s="2">
         <v>44740</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" s="2">
         <v>44736</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" s="2">
         <v>44735</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" s="2">
         <v>44734</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" s="2">
         <v>44733</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" s="2">
         <v>44729</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" s="2">
         <v>44728</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B659" s="2">
         <v>44727</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B660" s="2">
         <v>44722</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B661" s="2">
         <v>44721</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B662" s="2">
         <v>44720</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B663" s="2">
         <v>44719</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B664" s="2">
         <v>44714</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B665" s="2">
         <v>44713</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B666" s="2">
         <v>44712</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B667" s="2">
         <v>44708</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B668" s="2">
         <v>44707</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B669" s="2">
         <v>44706</v>
@@ -9758,7 +9758,7 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B670" s="2">
         <v>44705</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B671" s="2">
         <v>44701</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B672" s="2">
         <v>44700</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B673" s="2">
         <v>44699</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B674" s="2">
         <v>44698</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B675" s="2">
         <v>44694</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B676" s="2">
         <v>44693</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B677" s="2">
         <v>44687</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B678" s="2">
         <v>44686</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B679" s="2">
         <v>44680</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B680" s="2">
         <v>44679</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B681" s="2">
         <v>44678</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B682" s="2">
         <v>44677</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B683" s="2">
         <v>44673</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B684" s="2">
         <v>44672</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B685" s="2">
         <v>44671</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B686" s="2">
         <v>44670</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B687" s="2">
         <v>44666</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B688" s="2">
         <v>44665</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B689" s="2">
         <v>44664</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B690" s="2">
         <v>44663</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B691" s="2">
         <v>44659</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B692" s="2">
         <v>44658</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B693" s="2">
         <v>44657</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B694" s="2">
         <v>44652</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B695" s="2">
         <v>44651</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B696" s="2">
         <v>44650</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B697" s="2">
         <v>44649</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B698" s="2">
         <v>44645</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B699" s="2">
         <v>44644</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B700" s="2">
         <v>44643</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B701" s="2">
         <v>44642</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B702" s="2">
         <v>44638</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B703" s="2">
         <v>44637</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B704" s="2">
         <v>44636</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B705" s="2">
         <v>44635</v>
@@ -10262,7 +10262,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B706" s="2">
         <v>44631</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B707" s="2">
         <v>44630</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B708" s="2">
         <v>44624</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B709" s="2">
         <v>44623</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B710" s="2">
         <v>44622</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B711" s="2">
         <v>44621</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B712" s="2">
         <v>44617</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B713" s="2">
         <v>44615</v>
@@ -10374,7 +10374,7 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B714" s="2">
         <v>44614</v>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B715" s="2">
         <v>44610</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B716" s="2">
         <v>44609</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B717" s="2">
         <v>44608</v>
@@ -10430,7 +10430,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B718" s="2">
         <v>44607</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B719" s="2">
         <v>44603</v>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B720" s="2">
         <v>44602</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B721" s="2">
         <v>44601</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B722" s="2">
         <v>44600</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B723" s="2">
         <v>44589</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B724" s="2">
         <v>44588</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B725" s="2">
         <v>44587</v>
@@ -10542,7 +10542,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B726" s="2">
         <v>44586</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B727" s="2">
         <v>44582</v>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B728" s="2">
         <v>44581</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B729" s="2">
         <v>44580</v>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B730" s="2">
         <v>44579</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B731" s="2">
         <v>44575</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B732" s="2">
         <v>44574</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B733" s="2">
         <v>44573</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B734" s="2">
         <v>44572</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B735" s="2">
         <v>44561</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B736" s="2">
         <v>44560</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B737" s="2">
         <v>44559</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B738" s="2">
         <v>44558</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B739" s="2">
         <v>44554</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B740" s="2">
         <v>44553</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B741" s="2">
         <v>44552</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B742" s="2">
         <v>44551</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="1">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B743" s="2">
         <v>44547</v>
@@ -10794,7 +10794,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B744" s="2">
         <v>44546</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="1">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B745" s="2">
         <v>44545</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B746" s="2">
         <v>44544</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="1">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B747" s="2">
         <v>44540</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="1">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B748" s="2">
         <v>44539</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="1">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B749" s="2">
         <v>44538</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="1">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B750" s="2">
         <v>44537</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B751" s="2">
         <v>44533</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="1">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B752" s="2">
         <v>44532</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B753" s="2">
         <v>44531</v>
@@ -10934,7 +10934,7 @@
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="1">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B754" s="2">
         <v>44530</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="1">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B755" s="2">
         <v>44526</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="1">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B756" s="2">
         <v>44525</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="1">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B757" s="2">
         <v>44524</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="1">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B758" s="2">
         <v>44523</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="1">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B759" s="2">
         <v>44519</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="1">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B760" s="2">
         <v>44518</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="1">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B761" s="2">
         <v>44517</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="1">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B762" s="2">
         <v>44516</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="1">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B763" s="2">
         <v>44512</v>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B764" s="2">
         <v>44511</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="1">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B765" s="2">
         <v>44510</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="1">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B766" s="2">
         <v>44509</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="1">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B767" s="2">
         <v>44504</v>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="1">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B768" s="2">
         <v>44503</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="1">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B769" s="2">
         <v>44502</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="1">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B770" s="2">
         <v>44498</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B771" s="2">
         <v>44497</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="1">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B772" s="2">
         <v>44496</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="1">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B773" s="2">
         <v>44495</v>
@@ -11214,7 +11214,7 @@
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="1">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B774" s="2">
         <v>44491</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="1">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B775" s="2">
         <v>44490</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="1">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B776" s="2">
         <v>44489</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="1">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B777" s="2">
         <v>44488</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="1">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B778" s="2">
         <v>44484</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="1">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B779" s="2">
         <v>44483</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="1">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B780" s="2">
         <v>44482</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="1">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B781" s="2">
         <v>44481</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="1">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B782" s="2">
         <v>44477</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="1">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B783" s="2">
         <v>44469</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="1">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B784" s="2">
         <v>44468</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B785" s="2">
         <v>44467</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="1">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B786" s="2">
         <v>44463</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B787" s="2">
         <v>44462</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="1">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B788" s="2">
         <v>44461</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="1">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B789" s="2">
         <v>44456</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="1">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B790" s="2">
         <v>44455</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="1">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B791" s="2">
         <v>44454</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="1">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B792" s="2">
         <v>44453</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="1">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B793" s="2">
         <v>44449</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="1">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B794" s="2">
         <v>44448</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B795" s="2">
         <v>44447</v>
@@ -11522,7 +11522,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B796" s="2">
         <v>44446</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="1">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B797" s="2">
         <v>44442</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B798" s="2">
         <v>44441</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="1">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B799" s="2">
         <v>44440</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="1">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B800" s="2">
         <v>44439</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="1">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B801" s="2">
         <v>44435</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="1">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B802" s="2">
         <v>44434</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="1">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B803" s="2">
         <v>44433</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="1">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B804" s="2">
         <v>44432</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B805" s="2">
         <v>44428</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="1">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B806" s="2">
         <v>44427</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="1">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B807" s="2">
         <v>44426</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="1">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B808" s="2">
         <v>44425</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="1">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B809" s="2">
         <v>44421</v>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="1">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B810" s="2">
         <v>44420</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="1">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B811" s="2">
         <v>44419</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="1">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B812" s="2">
         <v>44418</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="1">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B813" s="2">
         <v>44414</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="1">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B814" s="2">
         <v>44413</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B815" s="2">
         <v>44412</v>
@@ -11802,7 +11802,7 @@
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="1">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B816" s="2">
         <v>44411</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="1">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B817" s="2">
         <v>44407</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="1">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B818" s="2">
         <v>44406</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="1">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B819" s="2">
         <v>44405</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="1">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B820" s="2">
         <v>44404</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B821" s="2">
         <v>44400</v>
@@ -11886,7 +11886,7 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="1">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B822" s="2">
         <v>44399</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="1">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B823" s="2">
         <v>44398</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="1">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B824" s="2">
         <v>44397</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="1">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B825" s="2">
         <v>44393</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="1">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B826" s="2">
         <v>44392</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="1">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B827" s="2">
         <v>44391</v>
@@ -11970,7 +11970,7 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="1">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B828" s="2">
         <v>44390</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="1">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B829" s="2">
         <v>44386</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="1">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B830" s="2">
         <v>44385</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="1">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B831" s="2">
         <v>44384</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B832" s="2">
         <v>44383</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="1">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B833" s="2">
         <v>44379</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="1">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B834" s="2">
         <v>44378</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="1">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B835" s="2">
         <v>44377</v>
@@ -12082,7 +12082,7 @@
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="1">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B836" s="2">
         <v>44376</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="1">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B837" s="2">
         <v>44372</v>
@@ -12110,7 +12110,7 @@
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="1">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B838" s="2">
         <v>44371</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="1">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B839" s="2">
         <v>44370</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="1">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B840" s="2">
         <v>44369</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="1">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B841" s="2">
         <v>44365</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="1">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B842" s="2">
         <v>44364</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="1">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B843" s="2">
         <v>44363</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="1">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B844" s="2">
         <v>44358</v>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="1">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B845" s="2">
         <v>44357</v>
@@ -12222,7 +12222,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="1">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B846" s="2">
         <v>44356</v>
@@ -12236,7 +12236,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="1">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B847" s="2">
         <v>44355</v>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="1">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B848" s="2">
         <v>44351</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="1">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B849" s="2">
         <v>44350</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="1">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B850" s="2">
         <v>44349</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="1">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B851" s="2">
         <v>44348</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="1">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B852" s="2">
         <v>44344</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="1">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B853" s="2">
         <v>44343</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="1">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B854" s="2">
         <v>44342</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="1">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B855" s="2">
         <v>44341</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B856" s="2">
         <v>44337</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B857" s="2">
         <v>44336</v>
@@ -12390,7 +12390,7 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B858" s="2">
         <v>44335</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="1">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B859" s="2">
         <v>44334</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="1">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B860" s="2">
         <v>44330</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="1">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B861" s="2">
         <v>44329</v>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="1">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B862" s="2">
         <v>44328</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="1">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B863" s="2">
         <v>44323</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="1">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B864" s="2">
         <v>44322</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="1">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B865" s="2">
         <v>44316</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="1">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B866" s="2">
         <v>44315</v>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="1">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B867" s="2">
         <v>44314</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="1">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B868" s="2">
         <v>44313</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B869" s="2">
         <v>44309</v>
@@ -12558,7 +12558,7 @@
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="1">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B870" s="2">
         <v>44308</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="1">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B871" s="2">
         <v>44307</v>
@@ -12586,7 +12586,7 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="1">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B872" s="2">
         <v>44306</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="1">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B873" s="2">
         <v>44302</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="1">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B874" s="2">
         <v>44301</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="1">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B875" s="2">
         <v>44300</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="1">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B876" s="2">
         <v>44299</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="1">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B877" s="2">
         <v>44295</v>
@@ -12670,7 +12670,7 @@
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="1">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B878" s="2">
         <v>44294</v>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="1">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B879" s="2">
         <v>44293</v>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="1">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B880" s="2">
         <v>44292</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B881" s="2">
         <v>44288</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="1">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B882" s="2">
         <v>44287</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="1">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B883" s="2">
         <v>44286</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="1">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B884" s="2">
         <v>44285</v>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="1">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B885" s="2">
         <v>44281</v>
@@ -12782,7 +12782,7 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="1">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B886" s="2">
         <v>44280</v>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="1">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B887" s="2">
         <v>44279</v>
@@ -12810,7 +12810,7 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="1">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B888" s="2">
         <v>44278</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B889" s="2">
         <v>44274</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B890" s="2">
         <v>44273</v>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="1">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B891" s="2">
         <v>44272</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="1">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B892" s="2">
         <v>44271</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="1">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B893" s="2">
         <v>44267</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="1">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B894" s="2">
         <v>44266</v>
@@ -12908,7 +12908,7 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="1">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B895" s="2">
         <v>44265</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B896" s="2">
         <v>44260</v>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="1">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B897" s="2">
         <v>44259</v>
@@ -12950,7 +12950,7 @@
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="1">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B898" s="2">
         <v>44258</v>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="1">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B899" s="2">
         <v>44257</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="1">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B900" s="2">
         <v>44253</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="1">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B901" s="2">
         <v>44252</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="1">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B902" s="2">
         <v>44246</v>
@@ -13020,7 +13020,7 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="1">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B903" s="2">
         <v>44245</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="1">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B904" s="2">
         <v>44237</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="1">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B905" s="2">
         <v>44236</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="1">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B906" s="2">
         <v>44232</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="1">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B907" s="2">
         <v>44231</v>
@@ -13090,7 +13090,7 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="1">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B908" s="2">
         <v>44230</v>
@@ -13104,7 +13104,7 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="1">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B909" s="2">
         <v>44229</v>
@@ -13118,7 +13118,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="1">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B910" s="2">
         <v>44225</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="1">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B911" s="2">
         <v>44224</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="1">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B912" s="2">
         <v>44223</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="1">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B913" s="2">
         <v>44222</v>
@@ -13174,7 +13174,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="1">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B914" s="2">
         <v>44218</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="1">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B915" s="2">
         <v>44217</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="1">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B916" s="2">
         <v>44216</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="1">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B917" s="2">
         <v>44215</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="1">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B918" s="2">
         <v>44211</v>
@@ -13244,7 +13244,7 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="1">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B919" s="2">
         <v>44210</v>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="1">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B920" s="2">
         <v>44209</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="1">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B921" s="2">
         <v>44208</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="1">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B922" s="2">
         <v>44196</v>
@@ -13300,7 +13300,7 @@
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="1">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B923" s="2">
         <v>44195</v>
@@ -13314,7 +13314,7 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="1">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B924" s="2">
         <v>44194</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="1">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B925" s="2">
         <v>44190</v>
@@ -13342,7 +13342,7 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="1">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B926" s="2">
         <v>44189</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="1">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B927" s="2">
         <v>44188</v>
@@ -13370,7 +13370,7 @@
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="1">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B928" s="2">
         <v>44187</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="1">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B929" s="2">
         <v>44183</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="1">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B930" s="2">
         <v>44182</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="1">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B931" s="2">
         <v>44181</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="1">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B932" s="2">
         <v>44180</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="1">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B933" s="2">
         <v>44176</v>
@@ -13454,7 +13454,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B934" s="2">
         <v>44175</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="1">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B935" s="2">
         <v>44174</v>
@@ -13482,7 +13482,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="1">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B936" s="2">
         <v>44173</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="1">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B937" s="2">
         <v>44169</v>
@@ -13510,7 +13510,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B938" s="2">
         <v>44168</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="1">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B939" s="2">
         <v>44167</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="1">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B940" s="2">
         <v>44166</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="1">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B941" s="2">
         <v>44162</v>
@@ -13566,7 +13566,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="1">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B942" s="2">
         <v>44161</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="1">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B943" s="2">
         <v>44160</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="1">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B944" s="2">
         <v>44159</v>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="945" spans="1:4">
       <c r="A945" s="1">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B945" s="2">
         <v>44155</v>
@@ -13622,7 +13622,7 @@
     </row>
     <row r="946" spans="1:4">
       <c r="A946" s="1">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B946" s="2">
         <v>44154</v>
@@ -13636,7 +13636,7 @@
     </row>
     <row r="947" spans="1:4">
       <c r="A947" s="1">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B947" s="2">
         <v>44153</v>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="948" spans="1:4">
       <c r="A948" s="1">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B948" s="2">
         <v>44152</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="1">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B949" s="2">
         <v>44148</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="1">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B950" s="2">
         <v>44147</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="1">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B951" s="2">
         <v>44146</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B952" s="2">
         <v>44145</v>
@@ -13720,7 +13720,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="1">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B953" s="2">
         <v>44141</v>
@@ -13734,7 +13734,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="1">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B954" s="2">
         <v>44139</v>
@@ -13748,7 +13748,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="1">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B955" s="2">
         <v>44138</v>
@@ -13762,7 +13762,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="1">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B956" s="2">
         <v>44134</v>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="1">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B957" s="2">
         <v>44133</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="1">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B958" s="2">
         <v>44132</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="1">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B959" s="2">
         <v>44131</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="960" spans="1:4">
       <c r="A960" s="1">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B960" s="2">
         <v>44127</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" s="1">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B961" s="2">
         <v>44126</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="962" spans="1:4">
       <c r="A962" s="1">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B962" s="2">
         <v>44125</v>
@@ -13860,7 +13860,7 @@
     </row>
     <row r="963" spans="1:4">
       <c r="A963" s="1">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B963" s="2">
         <v>44124</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="964" spans="1:4">
       <c r="A964" s="1">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B964" s="2">
         <v>44120</v>
@@ -13888,7 +13888,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="1">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B965" s="2">
         <v>44119</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="966" spans="1:4">
       <c r="A966" s="1">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B966" s="2">
         <v>44118</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="967" spans="1:4">
       <c r="A967" s="1">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B967" s="2">
         <v>44117</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="968" spans="1:4">
       <c r="A968" s="1">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B968" s="2">
         <v>44113</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="969" spans="1:4">
       <c r="A969" s="1">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B969" s="2">
         <v>44104</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="1">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B970" s="2">
         <v>44103</v>
@@ -13972,7 +13972,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B971" s="2">
         <v>44099</v>
@@ -13986,7 +13986,7 @@
     </row>
     <row r="972" spans="1:4">
       <c r="A972" s="1">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B972" s="2">
         <v>44098</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="973" spans="1:4">
       <c r="A973" s="1">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B973" s="2">
         <v>44097</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="974" spans="1:4">
       <c r="A974" s="1">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B974" s="2">
         <v>44096</v>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B975" s="2">
         <v>44092</v>
@@ -14042,7 +14042,7 @@
     </row>
     <row r="976" spans="1:4">
       <c r="A976" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B976" s="2">
         <v>44091</v>
@@ -14056,7 +14056,7 @@
     </row>
     <row r="977" spans="1:4">
       <c r="A977" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B977" s="2">
         <v>44090</v>
@@ -14070,7 +14070,7 @@
     </row>
     <row r="978" spans="1:4">
       <c r="A978" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B978" s="2">
         <v>44089</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" s="1">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B979" s="2">
         <v>44085</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="980" spans="1:4">
       <c r="A980" s="1">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B980" s="2">
         <v>44084</v>
@@ -14112,7 +14112,7 @@
     </row>
     <row r="981" spans="1:4">
       <c r="A981" s="1">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B981" s="2">
         <v>44083</v>
@@ -14126,7 +14126,7 @@
     </row>
     <row r="982" spans="1:4">
       <c r="A982" s="1">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B982" s="2">
         <v>44082</v>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="983" spans="1:4">
       <c r="A983" s="1">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B983" s="2">
         <v>44078</v>
@@ -14154,7 +14154,7 @@
     </row>
     <row r="984" spans="1:4">
       <c r="A984" s="1">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B984" s="2">
         <v>44077</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" s="1">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B985" s="2">
         <v>44076</v>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="986" spans="1:4">
       <c r="A986" s="1">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B986" s="2">
         <v>44075</v>
@@ -14196,7 +14196,7 @@
     </row>
     <row r="987" spans="1:4">
       <c r="A987" s="1">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B987" s="2">
         <v>44071</v>
@@ -14210,7 +14210,7 @@
     </row>
     <row r="988" spans="1:4">
       <c r="A988" s="1">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B988" s="2">
         <v>44070</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="989" spans="1:4">
       <c r="A989" s="1">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B989" s="2">
         <v>44069</v>
@@ -14238,7 +14238,7 @@
     </row>
     <row r="990" spans="1:4">
       <c r="A990" s="1">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B990" s="2">
         <v>44068</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="991" spans="1:4">
       <c r="A991" s="1">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B991" s="2">
         <v>44064</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="992" spans="1:4">
       <c r="A992" s="1">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B992" s="2">
         <v>44063</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="993" spans="1:4">
       <c r="A993" s="1">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B993" s="2">
         <v>44062</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="994" spans="1:4">
       <c r="A994" s="1">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B994" s="2">
         <v>44061</v>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="995" spans="1:4">
       <c r="A995" s="1">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B995" s="2">
         <v>44057</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="996" spans="1:4">
       <c r="A996" s="1">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B996" s="2">
         <v>44056</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="997" spans="1:4">
       <c r="A997" s="1">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B997" s="2">
         <v>44055</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="998" spans="1:4">
       <c r="A998" s="1">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B998" s="2">
         <v>44054</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="999" spans="1:4">
       <c r="A999" s="1">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B999" s="2">
         <v>44050</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="1000" spans="1:4">
       <c r="A1000" s="1">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B1000" s="2">
         <v>44049</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="1001" spans="1:4">
       <c r="A1001" s="1">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B1001" s="2">
         <v>44048</v>
@@ -14406,7 +14406,7 @@
     </row>
     <row r="1002" spans="1:4">
       <c r="A1002" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B1002" s="2">
         <v>44047</v>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B1003" s="2">
         <v>44043</v>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B1004" s="2">
         <v>44042</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" s="1">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B1005" s="2">
         <v>44041</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" s="1">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B1006" s="2">
         <v>44040</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="1007" spans="1:4">
       <c r="A1007" s="1">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1007" s="2">
         <v>44036</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="1008" spans="1:4">
       <c r="A1008" s="1">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B1008" s="2">
         <v>44035</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" s="1">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B1009" s="2">
         <v>44034</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" s="1">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1010" s="2">
         <v>44033</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" s="1">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1011" s="2">
         <v>44029</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" s="1">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B1012" s="2">
         <v>44028</v>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" s="1">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B1013" s="2">
         <v>44027</v>
@@ -14574,7 +14574,7 @@
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" s="1">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B1014" s="2">
         <v>44026</v>
@@ -14588,7 +14588,7 @@
     </row>
     <row r="1015" spans="1:4">
       <c r="A1015" s="1">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B1015" s="2">
         <v>44022</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="1016" spans="1:4">
       <c r="A1016" s="1">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B1016" s="2">
         <v>44021</v>
@@ -14616,7 +14616,7 @@
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" s="1">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B1017" s="2">
         <v>44020</v>
@@ -14630,7 +14630,7 @@
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" s="1">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B1018" s="2">
         <v>44019</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" s="1">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B1019" s="2">
         <v>44015</v>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" s="1">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B1020" s="2">
         <v>44014</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" s="1">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B1021" s="2">
         <v>44013</v>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" s="1">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B1022" s="2">
         <v>44012</v>
@@ -14700,7 +14700,7 @@
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" s="1">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1023" s="2">
         <v>44006</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" s="1">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B1024" s="2">
         <v>44005</v>
@@ -14728,7 +14728,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" s="1">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B1025" s="2">
         <v>44001</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="1026" spans="1:4">
       <c r="A1026" s="1">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B1026" s="2">
         <v>44000</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" s="1">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B1027" s="2">
         <v>43999</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" s="1">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B1028" s="2">
         <v>43998</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="1029" spans="1:4">
       <c r="A1029" s="1">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B1029" s="2">
         <v>43994</v>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B1030" s="2">
         <v>43993</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="1031" spans="1:4">
       <c r="A1031" s="1">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B1031" s="2">
         <v>43992</v>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" s="1">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B1032" s="2">
         <v>43991</v>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033" s="1">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B1033" s="2">
         <v>43987</v>
@@ -14854,7 +14854,7 @@
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034" s="1">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B1034" s="2">
         <v>43986</v>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="1035" spans="1:4">
       <c r="A1035" s="1">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B1035" s="2">
         <v>43985</v>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" s="1">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B1036" s="2">
         <v>43984</v>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" s="1">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B1037" s="2">
         <v>43980</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" s="1">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B1038" s="2">
         <v>43979</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="1039" spans="1:4">
       <c r="A1039" s="1">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B1039" s="2">
         <v>43978</v>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="1040" spans="1:4">
       <c r="A1040" s="1">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B1040" s="2">
         <v>43977</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" s="1">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B1041" s="2">
         <v>43973</v>
@@ -14966,7 +14966,7 @@
     </row>
     <row r="1042" spans="1:4">
       <c r="A1042" s="1">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1042" s="2">
         <v>43972</v>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" s="1">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B1043" s="2">
         <v>43971</v>
@@ -14994,7 +14994,7 @@
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" s="1">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B1044" s="2">
         <v>43970</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="1">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B1045" s="2">
         <v>43966</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" s="1">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B1046" s="2">
         <v>43965</v>
@@ -15036,7 +15036,7 @@
     </row>
     <row r="1047" spans="1:4">
       <c r="A1047" s="1">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B1047" s="2">
         <v>43964</v>
@@ -15050,7 +15050,7 @@
     </row>
     <row r="1048" spans="1:4">
       <c r="A1048" s="1">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B1048" s="2">
         <v>43959</v>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="1049" spans="1:4">
       <c r="A1049" s="1">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B1049" s="2">
         <v>43958</v>
@@ -15078,7 +15078,7 @@
     </row>
     <row r="1050" spans="1:4">
       <c r="A1050" s="1">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B1050" s="2">
         <v>43951</v>
@@ -15092,7 +15092,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="1">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B1051" s="2">
         <v>43950</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="1052" spans="1:4">
       <c r="A1052" s="1">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B1052" s="2">
         <v>43949</v>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="1053" spans="1:4">
       <c r="A1053" s="1">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B1053" s="2">
         <v>43945</v>
@@ -15134,7 +15134,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="1">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B1054" s="2">
         <v>43944</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="1">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B1055" s="2">
         <v>43943</v>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="1056" spans="1:4">
       <c r="A1056" s="1">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B1056" s="2">
         <v>43942</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="1057" spans="1:4">
       <c r="A1057" s="1">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B1057" s="2">
         <v>43938</v>
@@ -15190,7 +15190,7 @@
     </row>
     <row r="1058" spans="1:4">
       <c r="A1058" s="1">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B1058" s="2">
         <v>43937</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="1059" spans="1:4">
       <c r="A1059" s="1">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B1059" s="2">
         <v>43936</v>
@@ -15218,7 +15218,7 @@
     </row>
     <row r="1060" spans="1:4">
       <c r="A1060" s="1">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B1060" s="2">
         <v>43935</v>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="1061" spans="1:4">
       <c r="A1061" s="1">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B1061" s="2">
         <v>43931</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="1">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B1062" s="2">
         <v>43930</v>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="1063" spans="1:4">
       <c r="A1063" s="1">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B1063" s="2">
         <v>43929</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="1064" spans="1:4">
       <c r="A1064" s="1">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B1064" s="2">
         <v>43928</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="1065" spans="1:4">
       <c r="A1065" s="1">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B1065" s="2">
         <v>43917</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" s="1">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B1066" s="2">
         <v>43916</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="1067" spans="1:4">
       <c r="A1067" s="1">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B1067" s="2">
         <v>43915</v>
@@ -15330,7 +15330,7 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="1">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B1068" s="2">
         <v>43914</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" s="1">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B1069" s="2">
         <v>43910</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" s="1">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B1070" s="2">
         <v>43909</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="1071" spans="1:4">
       <c r="A1071" s="1">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B1071" s="2">
         <v>43908</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="1072" spans="1:4">
       <c r="A1072" s="1">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B1072" s="2">
         <v>43907</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" s="1">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B1073" s="2">
         <v>43903</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" s="1">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B1074" s="2">
         <v>43902</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" s="1">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B1075" s="2">
         <v>43901</v>
@@ -15442,7 +15442,7 @@
     </row>
     <row r="1076" spans="1:4">
       <c r="A1076" s="1">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B1076" s="2">
         <v>43896</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="1077" spans="1:4">
       <c r="A1077" s="1">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B1077" s="2">
         <v>43895</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="1078" spans="1:4">
       <c r="A1078" s="1">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B1078" s="2">
         <v>43894</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="1">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B1079" s="2">
         <v>43893</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="1080" spans="1:4">
       <c r="A1080" s="1">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B1080" s="2">
         <v>43889</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="1081" spans="1:4">
       <c r="A1081" s="1">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B1081" s="2">
         <v>43888</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="1082" spans="1:4">
       <c r="A1082" s="1">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B1082" s="2">
         <v>43887</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" s="1">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1083" s="2">
         <v>43882</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="1084" spans="1:4">
       <c r="A1084" s="1">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B1084" s="2">
         <v>43881</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="1085" spans="1:4">
       <c r="A1085" s="1">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B1085" s="2">
         <v>43880</v>
@@ -15582,7 +15582,7 @@
     </row>
     <row r="1086" spans="1:4">
       <c r="A1086" s="1">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B1086" s="2">
         <v>43879</v>
@@ -15596,7 +15596,7 @@
     </row>
     <row r="1087" spans="1:4">
       <c r="A1087" s="1">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B1087" s="2">
         <v>43875</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="1088" spans="1:4">
       <c r="A1088" s="1">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B1088" s="2">
         <v>43874</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="1089" spans="1:4">
       <c r="A1089" s="1">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B1089" s="2">
         <v>43873</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="1090" spans="1:4">
       <c r="A1090" s="1">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B1090" s="2">
         <v>43872</v>
@@ -15652,7 +15652,7 @@
     </row>
     <row r="1091" spans="1:4">
       <c r="A1091" s="1">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B1091" s="2">
         <v>43868</v>
@@ -15666,7 +15666,7 @@
     </row>
     <row r="1092" spans="1:4">
       <c r="A1092" s="1">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B1092" s="2">
         <v>43867</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="1093" spans="1:4">
       <c r="A1093" s="1">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B1093" s="2">
         <v>43866</v>
@@ -15694,7 +15694,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" s="1">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B1094" s="2">
         <v>43865</v>
@@ -15708,7 +15708,7 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" s="1">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1095" s="2">
         <v>43853</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="1096" spans="1:4">
       <c r="A1096" s="1">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B1096" s="2">
         <v>43852</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="1097" spans="1:4">
       <c r="A1097" s="1">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1097" s="2">
         <v>43851</v>
@@ -15750,7 +15750,7 @@
     </row>
     <row r="1098" spans="1:4">
       <c r="A1098" s="1">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B1098" s="2">
         <v>43847</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="1099" spans="1:4">
       <c r="A1099" s="1">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1099" s="2">
         <v>43846</v>
@@ -15778,7 +15778,7 @@
     </row>
     <row r="1100" spans="1:4">
       <c r="A1100" s="1">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1100" s="2">
         <v>43845</v>
@@ -15792,7 +15792,7 @@
     </row>
     <row r="1101" spans="1:4">
       <c r="A1101" s="1">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1101" s="2">
         <v>43844</v>
@@ -15806,7 +15806,7 @@
     </row>
     <row r="1102" spans="1:4">
       <c r="A1102" s="1">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B1102" s="2">
         <v>43840</v>
